--- a/score.xlsx
+++ b/score.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>못품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정남호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해커스실전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렛유인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1023,6 +1036,39 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1031,9 +1077,285 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+    </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/score.xlsx
+++ b/score.xlsx
@@ -442,8 +442,8 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -661,28 +661,28 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">

--- a/score.xlsx
+++ b/score.xlsx
@@ -442,8 +442,8 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1193,28 +1193,28 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">

--- a/score.xlsx
+++ b/score.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="20">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,11 +439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -625,30 +625,6 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1227,30 +1203,6 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
@@ -1354,6 +1306,166 @@
         <v>0</v>
       </c>
       <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
         <v>2</v>
       </c>
     </row>

--- a/score.xlsx
+++ b/score.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>렛유인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렛유인실전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,11 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1469,6 +1473,230 @@
         <v>2</v>
       </c>
     </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>12</v>
+      </c>
+      <c r="I46">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
